--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/07_LIB_EWS_IT/libFormula SIT/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/07_LIB_EWS_IT/libFormula SIT/03_Inst_Analysis_Unit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michele.dessi\Desktop\libFormula SIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\07_LIB_EWS_IT\libFormula SIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="186">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -600,6 +600,9 @@
   </si>
   <si>
     <t>NPAF_IS_M_DOC_DB_L3M</t>
+  </si>
+  <si>
+    <t>CR0_Q_DER</t>
   </si>
 </sst>
 </file>
@@ -1386,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F125" sqref="F125"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3519,6 +3522,23 @@
       </c>
       <c r="F125" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" t="s">
+        <v>185</v>
+      </c>
+      <c r="C126" t="s">
+        <v>185</v>
+      </c>
+      <c r="E126" t="s">
+        <v>38</v>
+      </c>
+      <c r="F126" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/07_LIB_EWS_IT/libFormula SIT/03_Inst_Analysis_Unit.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/07_LIB_EWS_IT/libFormula SIT/03_Inst_Analysis_Unit.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="187">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -603,6 +603,9 @@
   </si>
   <si>
     <t>CR0_Q_DER</t>
+  </si>
+  <si>
+    <t>Notizie_Pregiudizievoli</t>
   </si>
 </sst>
 </file>
@@ -1389,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2186,16 +2189,16 @@
         <v>20</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
         <v>38</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2203,16 +2206,16 @@
         <v>20</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E48" t="s">
         <v>38</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2220,16 +2223,16 @@
         <v>20</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E49" t="s">
         <v>38</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2237,16 +2240,16 @@
         <v>20</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E50" t="s">
         <v>38</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2254,16 +2257,16 @@
         <v>20</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="E51" t="s">
         <v>38</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2271,16 +2274,16 @@
         <v>20</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E52" t="s">
         <v>38</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2288,16 +2291,16 @@
         <v>20</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E53" t="s">
         <v>38</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2305,16 +2308,16 @@
         <v>20</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="E54" t="s">
         <v>38</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2322,16 +2325,16 @@
         <v>20</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="E55" t="s">
         <v>38</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2339,16 +2342,16 @@
         <v>20</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E56" t="s">
         <v>38</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2356,16 +2359,16 @@
         <v>20</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="E57" t="s">
         <v>38</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2373,16 +2376,16 @@
         <v>20</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="E58" t="s">
         <v>38</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2390,16 +2393,16 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="E59" t="s">
         <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2407,16 +2410,16 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="E60" t="s">
         <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2424,16 +2427,16 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="E61" t="s">
         <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2441,16 +2444,16 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E62" t="s">
         <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2458,16 +2461,16 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="E63" t="s">
         <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2475,16 +2478,16 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E64" t="s">
         <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2492,16 +2495,16 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E65" t="s">
         <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2509,16 +2512,16 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C66" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E66" t="s">
         <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2526,16 +2529,16 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E67" t="s">
         <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2543,16 +2546,16 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C68" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E68" t="s">
         <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2560,16 +2563,16 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E69" t="s">
         <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2577,16 +2580,16 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E70" t="s">
         <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2594,16 +2597,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C71" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E71" t="s">
         <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2611,16 +2614,16 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C72" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E72" t="s">
         <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2628,16 +2631,16 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C73" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E73" t="s">
         <v>38</v>
       </c>
       <c r="F73" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2645,16 +2648,16 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C74" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E74" t="s">
         <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2662,16 +2665,16 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C75" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E75" t="s">
         <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2679,16 +2682,16 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C76" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E76" t="s">
         <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2696,16 +2699,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E77" t="s">
         <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2713,16 +2716,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E78" t="s">
         <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2730,16 +2733,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C79" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E79" t="s">
         <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2747,16 +2750,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C80" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E80" t="s">
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2764,16 +2767,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C81" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E81" t="s">
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2781,16 +2784,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C82" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E82" t="s">
         <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2798,16 +2801,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E83" t="s">
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2815,16 +2818,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C84" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E84" t="s">
         <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2832,16 +2835,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C85" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E85" t="s">
         <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2849,16 +2852,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C86" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E86" t="s">
         <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2866,16 +2869,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C87" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2883,16 +2886,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C88" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E88" t="s">
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2900,16 +2903,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C89" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E89" t="s">
         <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2917,16 +2920,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C90" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E90" t="s">
         <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2934,16 +2937,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C91" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E91" t="s">
         <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2951,16 +2954,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C92" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E92" t="s">
         <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2968,16 +2971,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C93" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E93" t="s">
         <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2985,16 +2988,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C94" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E94" t="s">
         <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3002,16 +3005,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C95" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E95" t="s">
         <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3019,16 +3022,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C96" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E96" t="s">
         <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3036,16 +3039,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C97" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E97" t="s">
         <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3053,16 +3056,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C98" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E98" t="s">
         <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3070,16 +3073,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C99" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E99" t="s">
         <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3087,16 +3090,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C100" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E100" t="s">
         <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3104,16 +3107,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C101" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E101" t="s">
         <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3121,16 +3124,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C102" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E102" t="s">
         <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3138,16 +3141,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C103" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E103" t="s">
         <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3155,16 +3158,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C104" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E104" t="s">
         <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3172,16 +3175,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C105" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E105" t="s">
         <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3189,16 +3192,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C106" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3206,16 +3209,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C107" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3223,16 +3226,16 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C108" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E108" t="s">
         <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3240,16 +3243,16 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C109" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E109" t="s">
         <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3257,16 +3260,16 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C110" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E110" t="s">
         <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3274,16 +3277,16 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C111" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E111" t="s">
         <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3291,16 +3294,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C112" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E112" t="s">
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3308,16 +3311,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C113" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E113" t="s">
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3325,16 +3328,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C114" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E114" t="s">
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3342,16 +3345,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C115" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E115" t="s">
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3359,16 +3362,16 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C116" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E116" t="s">
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3376,16 +3379,16 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C117" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E117" t="s">
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3393,16 +3396,16 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C118" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E118" t="s">
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3410,16 +3413,16 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C119" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E119" t="s">
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3427,16 +3430,16 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C120" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E120" t="s">
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3444,16 +3447,16 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C121" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E121" t="s">
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3461,16 +3464,16 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C122" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E122" t="s">
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3478,16 +3481,16 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C123" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E123" t="s">
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3495,16 +3498,16 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C124" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E124" t="s">
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3512,16 +3515,16 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C125" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E125" t="s">
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3529,16 +3532,33 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C126" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E126" t="s">
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" t="s">
+        <v>182</v>
+      </c>
+      <c r="C127" t="s">
+        <v>182</v>
+      </c>
+      <c r="E127" t="s">
+        <v>38</v>
+      </c>
+      <c r="F127" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
